--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Tgfb3-Tgfbr3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Tgfb3-Tgfbr3.xlsx
@@ -534,46 +534,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.825549</v>
+        <v>1.103903333333333</v>
       </c>
       <c r="H2">
-        <v>5.476647</v>
+        <v>3.31171</v>
       </c>
       <c r="I2">
-        <v>0.04696949406168958</v>
+        <v>0.02393122995918198</v>
       </c>
       <c r="J2">
-        <v>0.04696949406168957</v>
+        <v>0.02393122995918198</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>19.86261233333333</v>
+        <v>13.10121233333333</v>
       </c>
       <c r="N2">
-        <v>59.58783700000001</v>
+        <v>39.303637</v>
       </c>
       <c r="O2">
-        <v>0.1710751304955294</v>
+        <v>0.1081423012186565</v>
       </c>
       <c r="P2">
-        <v>0.1710751304955294</v>
+        <v>0.1081423012186565</v>
       </c>
       <c r="Q2">
-        <v>36.26017208250433</v>
+        <v>14.46247196547445</v>
       </c>
       <c r="R2">
-        <v>326.341548742539</v>
+        <v>130.16224768927</v>
       </c>
       <c r="S2">
-        <v>0.008035312325912539</v>
+        <v>0.002587978278778793</v>
       </c>
       <c r="T2">
-        <v>0.008035312325912539</v>
+        <v>0.002587978278778794</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.825549</v>
+        <v>1.103903333333333</v>
       </c>
       <c r="H3">
-        <v>5.476647</v>
+        <v>3.31171</v>
       </c>
       <c r="I3">
-        <v>0.04696949406168958</v>
+        <v>0.02393122995918198</v>
       </c>
       <c r="J3">
-        <v>0.04696949406168957</v>
+        <v>0.02393122995918198</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>209.032433</v>
       </c>
       <c r="O3">
-        <v>0.6001266794307873</v>
+        <v>0.5751439322003361</v>
       </c>
       <c r="P3">
-        <v>0.6001266794307872</v>
+        <v>0.5751439322003362</v>
       </c>
       <c r="Q3">
-        <v>127.1996496769057</v>
+        <v>76.91719985449222</v>
       </c>
       <c r="R3">
-        <v>1144.796847092151</v>
+        <v>692.2547986904299</v>
       </c>
       <c r="S3">
-        <v>0.02818764650578585</v>
+        <v>0.01376390170111441</v>
       </c>
       <c r="T3">
-        <v>0.02818764650578584</v>
+        <v>0.01376390170111442</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.825549</v>
+        <v>1.103903333333333</v>
       </c>
       <c r="H4">
-        <v>5.476647</v>
+        <v>3.31171</v>
       </c>
       <c r="I4">
-        <v>0.04696949406168958</v>
+        <v>0.02393122995918198</v>
       </c>
       <c r="J4">
-        <v>0.04696949406168957</v>
+        <v>0.02393122995918198</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>26.564526</v>
+        <v>38.36920666666666</v>
       </c>
       <c r="N4">
-        <v>79.693578</v>
+        <v>115.10762</v>
       </c>
       <c r="O4">
-        <v>0.2287981900736832</v>
+        <v>0.3167137665810073</v>
       </c>
       <c r="P4">
-        <v>0.2287981900736832</v>
+        <v>0.3167137665810074</v>
       </c>
       <c r="Q4">
-        <v>48.494843874774</v>
+        <v>42.35589513668889</v>
       </c>
       <c r="R4">
-        <v>436.453594872966</v>
+        <v>381.2030562302</v>
       </c>
       <c r="S4">
-        <v>0.01074653522999119</v>
+        <v>0.00757934997928877</v>
       </c>
       <c r="T4">
-        <v>0.01074653522999119</v>
+        <v>0.007579349979288772</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,43 +723,43 @@
         <v>23.57737633333333</v>
       </c>
       <c r="H5">
-        <v>70.732129</v>
+        <v>70.73212899999999</v>
       </c>
       <c r="I5">
-        <v>0.6066215903701957</v>
+        <v>0.5111277390235027</v>
       </c>
       <c r="J5">
-        <v>0.6066215903701957</v>
+        <v>0.5111277390235027</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>19.86261233333333</v>
+        <v>13.10121233333333</v>
       </c>
       <c r="N5">
-        <v>59.58783700000001</v>
+        <v>39.303637</v>
       </c>
       <c r="O5">
-        <v>0.1710751304955294</v>
+        <v>0.1081423012186565</v>
       </c>
       <c r="P5">
-        <v>0.1710751304955294</v>
+        <v>0.1081423012186565</v>
       </c>
       <c r="Q5">
-        <v>468.3082859461081</v>
+        <v>308.8922136059081</v>
       </c>
       <c r="R5">
-        <v>4214.774573514974</v>
+        <v>2780.029922453173</v>
       </c>
       <c r="S5">
-        <v>0.1037778677339868</v>
+        <v>0.05527452991469047</v>
       </c>
       <c r="T5">
-        <v>0.1037778677339868</v>
+        <v>0.05527452991469047</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,13 +785,13 @@
         <v>23.57737633333333</v>
       </c>
       <c r="H6">
-        <v>70.732129</v>
+        <v>70.73212899999999</v>
       </c>
       <c r="I6">
-        <v>0.6066215903701957</v>
+        <v>0.5111277390235027</v>
       </c>
       <c r="J6">
-        <v>0.6066215903701957</v>
+        <v>0.5111277390235027</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>209.032433</v>
       </c>
       <c r="O6">
-        <v>0.6001266794307873</v>
+        <v>0.5751439322003361</v>
       </c>
       <c r="P6">
-        <v>0.6001266794307872</v>
+        <v>0.5751439322003362</v>
       </c>
       <c r="Q6">
         <v>1642.812112904428</v>
@@ -818,10 +818,10 @@
         <v>14785.30901613985</v>
       </c>
       <c r="S6">
-        <v>0.3640498006998888</v>
+        <v>0.2939720176786446</v>
       </c>
       <c r="T6">
-        <v>0.3640498006998887</v>
+        <v>0.2939720176786446</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,13 +847,13 @@
         <v>23.57737633333333</v>
       </c>
       <c r="H7">
-        <v>70.732129</v>
+        <v>70.73212899999999</v>
       </c>
       <c r="I7">
-        <v>0.6066215903701957</v>
+        <v>0.5111277390235027</v>
       </c>
       <c r="J7">
-        <v>0.6066215903701957</v>
+        <v>0.5111277390235027</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>26.564526</v>
+        <v>38.36920666666666</v>
       </c>
       <c r="N7">
-        <v>79.693578</v>
+        <v>115.10762</v>
       </c>
       <c r="O7">
-        <v>0.2287981900736832</v>
+        <v>0.3167137665810073</v>
       </c>
       <c r="P7">
-        <v>0.2287981900736832</v>
+        <v>0.3167137665810074</v>
       </c>
       <c r="Q7">
-        <v>626.321826618618</v>
+        <v>904.645225191442</v>
       </c>
       <c r="R7">
-        <v>5636.896439567562</v>
+        <v>8141.807026722979</v>
       </c>
       <c r="S7">
-        <v>0.13879392193632</v>
+        <v>0.1618811914301677</v>
       </c>
       <c r="T7">
-        <v>0.13879392193632</v>
+        <v>0.1618811914301677</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,46 +906,46 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>13.46376966666667</v>
+        <v>21.446869</v>
       </c>
       <c r="H8">
-        <v>40.391309</v>
+        <v>64.34060699999999</v>
       </c>
       <c r="I8">
-        <v>0.3464089155681147</v>
+        <v>0.4649410310173153</v>
       </c>
       <c r="J8">
-        <v>0.3464089155681147</v>
+        <v>0.4649410310173154</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>19.86261233333333</v>
+        <v>13.10121233333333</v>
       </c>
       <c r="N8">
-        <v>59.58783700000001</v>
+        <v>39.303637</v>
       </c>
       <c r="O8">
-        <v>0.1710751304955294</v>
+        <v>0.1081423012186565</v>
       </c>
       <c r="P8">
-        <v>0.1710751304955294</v>
+        <v>0.1081423012186565</v>
       </c>
       <c r="Q8">
-        <v>267.4256374342926</v>
+        <v>280.9799846541843</v>
       </c>
       <c r="R8">
-        <v>2406.830736908633</v>
+        <v>2528.819861887659</v>
       </c>
       <c r="S8">
-        <v>0.05926195043563007</v>
+        <v>0.05027979302518721</v>
       </c>
       <c r="T8">
-        <v>0.05926195043563007</v>
+        <v>0.05027979302518722</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>13.46376966666667</v>
+        <v>21.446869</v>
       </c>
       <c r="H9">
-        <v>40.391309</v>
+        <v>64.34060699999999</v>
       </c>
       <c r="I9">
-        <v>0.3464089155681147</v>
+        <v>0.4649410310173153</v>
       </c>
       <c r="J9">
-        <v>0.3464089155681147</v>
+        <v>0.4649410310173154</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>209.032433</v>
       </c>
       <c r="O9">
-        <v>0.6001266794307873</v>
+        <v>0.5751439322003361</v>
       </c>
       <c r="P9">
-        <v>0.6001266794307872</v>
+        <v>0.5751439322003362</v>
       </c>
       <c r="Q9">
-        <v>938.1215102583106</v>
+        <v>1494.363735767425</v>
       </c>
       <c r="R9">
-        <v>8443.093592324796</v>
+        <v>13449.27362190683</v>
       </c>
       <c r="S9">
-        <v>0.2078892322251127</v>
+        <v>0.2674080128205772</v>
       </c>
       <c r="T9">
-        <v>0.2078892322251126</v>
+        <v>0.2674080128205772</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>13.46376966666667</v>
+        <v>21.446869</v>
       </c>
       <c r="H10">
-        <v>40.391309</v>
+        <v>64.34060699999999</v>
       </c>
       <c r="I10">
-        <v>0.3464089155681147</v>
+        <v>0.4649410310173153</v>
       </c>
       <c r="J10">
-        <v>0.3464089155681147</v>
+        <v>0.4649410310173154</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>26.564526</v>
+        <v>38.36920666666666</v>
       </c>
       <c r="N10">
-        <v>79.693578</v>
+        <v>115.10762</v>
       </c>
       <c r="O10">
-        <v>0.2287981900736832</v>
+        <v>0.3167137665810073</v>
       </c>
       <c r="P10">
-        <v>0.2287981900736832</v>
+        <v>0.3167137665810074</v>
       </c>
       <c r="Q10">
-        <v>357.658659368178</v>
+        <v>822.8993490139264</v>
       </c>
       <c r="R10">
-        <v>3218.927934313602</v>
+        <v>7406.094141125339</v>
       </c>
       <c r="S10">
-        <v>0.07925773290737199</v>
+        <v>0.1472532251715509</v>
       </c>
       <c r="T10">
-        <v>0.07925773290737199</v>
+        <v>0.147253225171551</v>
       </c>
     </row>
   </sheetData>
